--- a/currentbuild/StructureDefinition-no-basis-person-citizenship.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-person-citizenship.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-person-citizenship</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-person-citizenship</t>
   </si>
   <si>
     <t>Version</t>
